--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/earunkumar/ConversationScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CEA463-1C34-8E4E-92DA-79DBBA91CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D92849-A6E3-054A-8ACE-0204CF32B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>RA Name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Make sure to include your email. If you don’t want an email sent to you set `want_email` to false in convo_script.py</t>
+  </si>
+  <si>
+    <t>ADD ENTRIES BELOW THIS LINE!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,8 +219,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +256,14 @@
         <bgColor rgb="FF5B0F00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,11 +286,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -322,6 +345,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +570,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -640,831 +669,850 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F4" s="13">
         <v>112</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H4" s="14">
         <v>44572</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I4" s="12">
         <v>4</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J4" s="13">
         <v>7</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K4" s="11">
         <v>3</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="22" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="22" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="22" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
-    </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="22" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="24" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="22" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="24" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="22" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="24" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="22" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="23"/>
-    </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="25" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="22" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="24" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="22" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="24" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="22" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="21"/>
-    </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="25" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="25" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="25" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="25" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="25" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="25" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="21"/>
-    </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="21"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="15"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="21"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="15"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="21"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="15"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="21"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="15"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="15"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="15"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="15"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="21"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="15"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="21"/>
+    </row>
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>